--- a/mapping/AFO_ENVO.xlsx
+++ b/mapping/AFO_ENVO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="821">
   <si>
     <t>AFO_IRI</t>
   </si>
@@ -28,6 +28,9 @@
     <t>ENVO_DESC</t>
   </si>
   <si>
+    <t>ENVO_DEF</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/IAO_0000030</t>
   </si>
   <si>
@@ -349,6 +352,12 @@
     <t>http://purl.allotrope.org/ontologies/result#AFR_0000951</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/common#AFC_0000166</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0000275</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/equipment#AFE_0000407</t>
   </si>
   <si>
@@ -358,6 +367,9 @@
     <t>http://purl.allotrope.org/ontologies/material#AFM_0000880</t>
   </si>
   <si>
+    <t>http://www.w3.org/2004/02/skos/core#Collection</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/equipment#AFE_0000354</t>
   </si>
   <si>
@@ -373,6 +385,9 @@
     <t>http://purl.allotrope.org/ontologies/result#AFR_0001844</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/spatial#AFSP_0000005</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/equipment#AFE_0000718</t>
   </si>
   <si>
@@ -421,6 +436,15 @@
     <t>http://purl.allotrope.org/ontologies/equipment#AFE_0002248</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003385</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003305</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0001478</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/material#AFM_0000077</t>
   </si>
   <si>
@@ -430,15 +454,42 @@
     <t>http://purl.allotrope.org/ontologies/material#AFM_0000105</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0001060</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0000154</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/quality#AFQ_0000114</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0000394</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/material#AFM_0000161</t>
   </si>
   <si>
     <t>http://purl.allotrope.org/ontologies/material#AFM_0000189</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0000341</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/CARO_0000006</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0000386</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/quality#AFQ_0000112</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0000403</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/quality#AFQ_0000113</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/material#AFM_0000404</t>
   </si>
   <si>
@@ -451,6 +502,9 @@
     <t>http://purl.allotrope.org/ontologies/material#AFM_0000435</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0000442</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/material#AFM_0000881</t>
   </si>
   <si>
@@ -469,12 +523,18 @@
     <t>http://purl.allotrope.org/ontologies/material#AFM_0001028</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0001044</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/material#AFM_0001033</t>
   </si>
   <si>
     <t>http://purl.allotrope.org/ontologies/material#AFM_0001054</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0001055</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/material#AFM_0001056</t>
   </si>
   <si>
@@ -484,18 +544,51 @@
     <t>http://purl.allotrope.org/ontologies/material#AFM_0001097</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0001084</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/role#AFRL_0000269</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0001112</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0001114</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0001115</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0001117</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0001118</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/material#AFM_0001125</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0001126</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/material#AFM_0001131</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0000161</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/result#AFR_0000413</t>
   </si>
   <si>
     <t>http://purl.allotrope.org/ontologies/process#AFP_0003458</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0003591</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0001209</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/quality#AFQ_0000120</t>
   </si>
   <si>
@@ -514,15 +607,18 @@
     <t>http://purl.allotrope.org/ontologies/quality#AFQ_0000299</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/realizable#AFRE_0000001</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/realizable#AFRE_0000005</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/realizable#AFRE_0000012</t>
   </si>
   <si>
     <t>http://purl.allotrope.org/ontologies/realizable#AFRE_0000013</t>
   </si>
   <si>
-    <t>http://purl.allotrope.org/ontologies/result#AFR_0000941</t>
-  </si>
-  <si>
     <t>http://purl.allotrope.org/ontologies/result#AFR_0001501</t>
   </si>
   <si>
@@ -532,6 +628,9 @@
     <t>http://purl.allotrope.org/ontologies/result#AFR_0000954</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0000961</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/result#AFR_0000966</t>
   </si>
   <si>
@@ -547,6 +646,12 @@
     <t>http://purl.allotrope.org/ontologies/result#AFR_0001142</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000316</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000325</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/result#AFR_0001216</t>
   </si>
   <si>
@@ -568,6 +673,9 @@
     <t>http://purl.allotrope.org/ontologies/result#AFR_0001661</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0002036</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/result#AFR_0001732</t>
   </si>
   <si>
@@ -613,18 +721,27 @@
     <t>http://purl.obolibrary.org/obo/OBI_0000086</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000221</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/role#AFRL_0000223</t>
   </si>
   <si>
     <t>http://purl.allotrope.org/ontologies/role#AFRL_0000244</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000253</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/role#AFRL_0000360</t>
   </si>
   <si>
     <t>http://purl.allotrope.org/ontologies/role#AFRL_0000363</t>
   </si>
   <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000370</t>
+  </si>
+  <si>
     <t>http://purl.allotrope.org/ontologies/role#AFRL_0000402</t>
   </si>
   <si>
@@ -646,6 +763,15 @@
     <t>http://purl.obolibrary.org/obo/IAO_0000306</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C45235</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000457</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PATO_0002194</t>
+  </si>
+  <si>
     <t>http://qudt.org/schema/qudt#Dimension</t>
   </si>
   <si>
@@ -970,6 +1096,12 @@
     <t>{'label': 'duration', 'prefLabel': 'duration', 'altLabel': 'time', 'name': 'AFR_0000951'}</t>
   </si>
   <si>
+    <t>{'label': 'collection', 'prefLabel': 'collection', 'altLabel': None, 'name': 'AFC_0000166'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': 'material', 'altLabel': 'matter', 'name': 'AFM_0000275'}</t>
+  </si>
+  <si>
     <t>{'label': 'container', 'prefLabel': 'container', 'altLabel': 'vessel', 'name': 'AFE_0000407'}</t>
   </si>
   <si>
@@ -979,6 +1111,9 @@
     <t>{'label': 'energy', 'prefLabel': 'energy', 'altLabel': None, 'name': 'AFM_0000880'}</t>
   </si>
   <si>
+    <t>{'label': 'Collection', 'prefLabel': None, 'altLabel': None, 'name': 'Collection'}</t>
+  </si>
+  <si>
     <t>{'label': 'device', 'prefLabel': 'device', 'altLabel': 'engineered artifact', 'name': 'AFE_0000354'}</t>
   </si>
   <si>
@@ -994,6 +1129,9 @@
     <t>{'label': 'mass', 'prefLabel': 'mass', 'altLabel': 'mass (datum)', 'name': 'AFR_0001844'}</t>
   </si>
   <si>
+    <t>{'label': 'space', 'prefLabel': 'space', 'altLabel': 'free space', 'name': 'AFSP_0000005'}</t>
+  </si>
+  <si>
     <t>{'label': 'tube', 'prefLabel': 'tube', 'altLabel': 'tubing', 'name': 'AFE_0000718'}</t>
   </si>
   <si>
@@ -1042,6 +1180,15 @@
     <t>{'label': 'probe', 'prefLabel': 'probe', 'altLabel': None, 'name': 'AFE_0002248'}</t>
   </si>
   <si>
+    <t>{'label': 'collecting', 'prefLabel': 'collecting', 'altLabel': 'collection', 'name': 'AFP_0003385'}</t>
+  </si>
+  <si>
+    <t>{'label': 'observing', 'prefLabel': 'observing', 'altLabel': 'observation', 'name': 'AFP_0003305'}</t>
+  </si>
+  <si>
+    <t>{'label': 'cooling', 'prefLabel': 'cooling', 'altLabel': None, 'name': 'AFP_0001478'}</t>
+  </si>
+  <si>
     <t>{'label': 'ion', 'prefLabel': 'ion', 'altLabel': None, 'name': 'AFM_0000077'}</t>
   </si>
   <si>
@@ -1051,15 +1198,42 @@
     <t>{'label': 'portion of water', 'prefLabel': 'portion of water', 'altLabel': 'water', 'name': 'AFM_0000105'}</t>
   </si>
   <si>
+    <t>{'label': 'portion of compound', 'prefLabel': 'portion of compound', 'altLabel': 'compound', 'name': 'AFM_0001060'}</t>
+  </si>
+  <si>
+    <t>{'label': 'gas', 'prefLabel': 'gas', 'altLabel': None, 'name': 'AFM_0000154'}</t>
+  </si>
+  <si>
+    <t>{'label': 'gas', 'prefLabel': 'gas', 'altLabel': 'gaseous', 'name': 'AFQ_0000114'}</t>
+  </si>
+  <si>
+    <t>{'label': 'fluid', 'prefLabel': 'fluid', 'altLabel': None, 'name': 'AFM_0000394'}</t>
+  </si>
+  <si>
     <t>{'label': 'anion', 'prefLabel': 'anion', 'altLabel': 'negative ion', 'name': 'AFM_0000161'}</t>
   </si>
   <si>
     <t>{'label': 'cation', 'prefLabel': 'cation', 'altLabel': 'positive ion', 'name': 'AFM_0000189'}</t>
   </si>
   <si>
+    <t>{'label': 'cell', 'prefLabel': 'cell', 'altLabel': None, 'name': 'AFM_0000341'}</t>
+  </si>
+  <si>
     <t>{'label': 'material anatomical entity', 'prefLabel': 'material anatomical entity', 'altLabel': None, 'name': 'CARO_0000006'}</t>
   </si>
   <si>
+    <t>{'label': 'solid', 'prefLabel': 'solid', 'altLabel': None, 'name': 'AFM_0000386'}</t>
+  </si>
+  <si>
+    <t>{'label': 'solid', 'prefLabel': 'solid', 'altLabel': 'solid state of matter', 'name': 'AFQ_0000112'}</t>
+  </si>
+  <si>
+    <t>{'label': 'liquid', 'prefLabel': 'liquid', 'altLabel': None, 'name': 'AFM_0000403'}</t>
+  </si>
+  <si>
+    <t>{'label': 'liquid', 'prefLabel': 'liquid', 'altLabel': 'liquid state of matter', 'name': 'AFQ_0000113'}</t>
+  </si>
+  <si>
     <t>{'label': 'plasma', 'prefLabel': 'plasma', 'altLabel': None, 'name': 'AFM_0000404'}</t>
   </si>
   <si>
@@ -1072,6 +1246,9 @@
     <t>{'label': 'particle (physics)', 'prefLabel': 'particle (physics)', 'altLabel': 'particle', 'name': 'AFM_0000435'}</t>
   </si>
   <si>
+    <t>{'label': 'suspension', 'prefLabel': 'suspension', 'altLabel': None, 'name': 'AFM_0000442'}</t>
+  </si>
+  <si>
     <t>{'label': 'thermal energy', 'prefLabel': 'thermal energy', 'altLabel': None, 'name': 'AFM_0000881'}</t>
   </si>
   <si>
@@ -1090,12 +1267,18 @@
     <t>{'label': 'atom', 'prefLabel': 'atom', 'altLabel': None, 'name': 'AFM_0001028'}</t>
   </si>
   <si>
+    <t>{'label': 'colloid', 'prefLabel': 'colloid', 'altLabel': 'colloidal system', 'name': 'AFM_0001044'}</t>
+  </si>
+  <si>
     <t>{'label': 'gel', 'prefLabel': 'gel', 'altLabel': None, 'name': 'AFM_0001033'}</t>
   </si>
   <si>
     <t>{'label': 'X-ray radiation', 'prefLabel': 'X-ray radiation', 'altLabel': 'X-ray', 'name': 'AFM_0001054'}</t>
   </si>
   <si>
+    <t>{'label': 'visible light', 'prefLabel': 'visible light', 'altLabel': 'light', 'name': 'AFM_0001055'}</t>
+  </si>
+  <si>
     <t>{'label': 'ultraviolet radiation', 'prefLabel': 'ultraviolet radiation', 'altLabel': 'UV', 'name': 'AFM_0001056'}</t>
   </si>
   <si>
@@ -1105,18 +1288,51 @@
     <t>{'label': 'chemical substance', 'prefLabel': 'chemical substance', 'altLabel': None, 'name': 'AFM_0001097'}</t>
   </si>
   <si>
+    <t>{'label': 'group', 'prefLabel': 'group', 'altLabel': None, 'name': 'AFM_0001084'}</t>
+  </si>
+  <si>
     <t>{'label': 'solvent role', 'prefLabel': 'solvent role', 'altLabel': 'solvent', 'name': 'AFRL_0000269'}</t>
   </si>
   <si>
+    <t>{'label': 'hydrogen gas', 'prefLabel': 'hydrogen gas', 'altLabel': 'hydrogen', 'name': 'AFM_0001112'}</t>
+  </si>
+  <si>
+    <t>{'label': 'nitrogen gas', 'prefLabel': 'nitrogen gas', 'altLabel': 'nitrogen', 'name': 'AFM_0001114'}</t>
+  </si>
+  <si>
+    <t>{'label': 'helium gas', 'prefLabel': 'helium gas', 'altLabel': 'helium', 'name': 'AFM_0001115'}</t>
+  </si>
+  <si>
+    <t>{'label': 'ammonia gas', 'prefLabel': 'ammonia gas', 'altLabel': 'ammonia', 'name': 'AFM_0001117'}</t>
+  </si>
+  <si>
+    <t>{'label': 'methane gas', 'prefLabel': 'methane gas', 'altLabel': 'methane', 'name': 'AFM_0001118'}</t>
+  </si>
+  <si>
     <t>{'label': 'bubble', 'prefLabel': 'bubble', 'altLabel': None, 'name': 'AFM_0001125'}</t>
   </si>
   <si>
+    <t>{'label': 'ozone gas', 'prefLabel': 'ozone gas', 'altLabel': 'ozone', 'name': 'AFM_0001126'}</t>
+  </si>
+  <si>
+    <t>{'label': 'liquid nitrogen', 'prefLabel': 'liquid nitrogen', 'altLabel': 'nitrogen', 'name': 'AFM_0001131'}</t>
+  </si>
+  <si>
+    <t>{'label': 'cleaning', 'prefLabel': 'cleaning', 'altLabel': 'cleansing', 'name': 'AFP_0000161'}</t>
+  </si>
+  <si>
     <t>{'label': 'peak', 'prefLabel': 'peak', 'altLabel': None, 'name': 'AFR_0000413'}</t>
   </si>
   <si>
     <t>{'label': 'melting', 'prefLabel': 'melting', 'altLabel': None, 'name': 'AFP_0003458'}</t>
   </si>
   <si>
+    <t>{'label': 'reflection', 'prefLabel': 'reflection', 'altLabel': 'reflecting', 'name': 'AFP_0003591'}</t>
+  </si>
+  <si>
+    <t>{'label': 'statistical population', 'prefLabel': 'statistical population', 'altLabel': 'population', 'name': 'AFR_0001209'}</t>
+  </si>
+  <si>
     <t>{'label': 'gel (quality)', 'prefLabel': 'gel (quality)', 'altLabel': 'gel', 'name': 'AFQ_0000120'}</t>
   </si>
   <si>
@@ -1135,15 +1351,18 @@
     <t>{'label': 'columnar particle shape', 'prefLabel': 'columnar particle shape', 'altLabel': 'columnar', 'name': 'AFQ_0000299'}</t>
   </si>
   <si>
+    <t>{'label': 'action', 'prefLabel': 'action', 'altLabel': 'task', 'name': 'AFRE_0000001'}</t>
+  </si>
+  <si>
+    <t>{'label': 'environmental situation', 'prefLabel': 'environmental situation', 'altLabel': 'environment', 'name': 'AFRE_0000005'}</t>
+  </si>
+  <si>
     <t>{'label': 'detergent', 'prefLabel': 'detergent', 'altLabel': None, 'name': 'AFRE_0000012'}</t>
   </si>
   <si>
     <t>{'label': 'surfactant', 'prefLabel': 'surfactant', 'altLabel': None, 'name': 'AFRE_0000013'}</t>
   </si>
   <si>
-    <t>{'label': 'action specification', 'prefLabel': 'action specification', 'altLabel': 'command', 'name': 'AFR_0000941'}</t>
-  </si>
-  <si>
     <t>{'label': 'plan specification', 'prefLabel': 'plan specification', 'altLabel': 'method', 'name': 'AFR_0001501'}</t>
   </si>
   <si>
@@ -1153,6 +1372,9 @@
     <t>{'label': 'rate', 'prefLabel': 'rate', 'altLabel': None, 'name': 'AFR_0000954'}</t>
   </si>
   <si>
+    <t>{'label': 'scalar datum', 'prefLabel': 'scalar datum', 'altLabel': 'scalar', 'name': 'AFR_0000961'}</t>
+  </si>
+  <si>
     <t>{'label': 'time datum', 'prefLabel': 'time datum', 'altLabel': 'time', 'name': 'AFR_0000966'}</t>
   </si>
   <si>
@@ -1168,6 +1390,12 @@
     <t>{'label': 'pH', 'prefLabel': 'pH', 'altLabel': 'pH (datum)', 'name': 'AFR_0001142'}</t>
   </si>
   <si>
+    <t>{'label': 'first member', 'prefLabel': 'first member', 'altLabel': 'first', 'name': 'AFRL_0000316'}</t>
+  </si>
+  <si>
+    <t>{'label': 'statistical population role', 'prefLabel': 'statistical population role', 'altLabel': 'population', 'name': 'AFRL_0000325'}</t>
+  </si>
+  <si>
     <t>{'label': 'position', 'prefLabel': 'position', 'altLabel': None, 'name': 'AFR_0001216'}</t>
   </si>
   <si>
@@ -1189,6 +1417,9 @@
     <t>{'label': 'mass concentration', 'prefLabel': 'mass concentration', 'altLabel': 'density', 'name': 'AFR_0001661'}</t>
   </si>
   <si>
+    <t>{'label': 'concentration', 'prefLabel': 'concentration', 'altLabel': 'concentration (datum)', 'name': 'AFR_0002036'}</t>
+  </si>
+  <si>
     <t>{'label': 'frequency', 'prefLabel': 'frequency', 'altLabel': None, 'name': 'AFR_0001732'}</t>
   </si>
   <si>
@@ -1234,18 +1465,27 @@
     <t>{'label': 'reagent role', 'prefLabel': 'reagent role', 'altLabel': 'reagent', 'name': 'OBI_0000086'}</t>
   </si>
   <si>
+    <t>{'label': 'debris role', 'prefLabel': 'debris role', 'altLabel': 'debris', 'name': 'AFRL_0000221'}</t>
+  </si>
+  <si>
     <t>{'label': 'detergent role', 'prefLabel': 'detergent role', 'altLabel': 'detergent', 'name': 'AFRL_0000223'}</t>
   </si>
   <si>
     <t>{'label': 'cleaning agent role', 'prefLabel': 'cleaning agent role', 'altLabel': 'detergent', 'name': 'AFRL_0000244'}</t>
   </si>
   <si>
+    <t>{'label': 'control sample role', 'prefLabel': 'control sample role', 'altLabel': 'control', 'name': 'AFRL_0000253'}</t>
+  </si>
+  <si>
     <t>{'label': 'product role', 'prefLabel': 'product role', 'altLabel': 'chemical product', 'name': 'AFRL_0000360'}</t>
   </si>
   <si>
     <t>{'label': 'rinse solution role', 'prefLabel': 'rinse solution role', 'altLabel': 'flush', 'name': 'AFRL_0000363'}</t>
   </si>
   <si>
+    <t>{'label': 'population role', 'prefLabel': 'population role', 'altLabel': 'population', 'name': 'AFRL_0000370'}</t>
+  </si>
+  <si>
     <t>{'label': 'head', 'prefLabel': 'head', 'altLabel': None, 'name': 'AFRL_0000402'}</t>
   </si>
   <si>
@@ -1267,12 +1507,27 @@
     <t>{'label': 'table', 'prefLabel': 'table', 'altLabel': None, 'name': 'IAO_0000306'}</t>
   </si>
   <si>
+    <t>{'label': 'solid dosage form', 'prefLabel': 'solid dosage form', 'altLabel': 'solid', 'name': 'NCIT_C45235'}</t>
+  </si>
+  <si>
+    <t>{'label': 'manufacturing', 'prefLabel': 'manufacturing', 'altLabel': None, 'name': 'OBI_0000457'}</t>
+  </si>
+  <si>
+    <t>{'label': 'neutral charge', 'prefLabel': 'neutral charge', 'altLabel': 'neutral', 'name': 'PATO_0002194'}</t>
+  </si>
+  <si>
     <t>{'label': 'dimension', 'prefLabel': 'dimension', 'altLabel': None, 'name': 'Dimension'}</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/PATO_0001309</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/PCO_0000000</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000785</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000967</t>
   </si>
   <si>
@@ -1291,7 +1546,10 @@
     <t>http://purl.obolibrary.org/obo/ENVO_03000117</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/UBERON_0000025</t>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001080</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_03600063</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/ENVO_00000025</t>
@@ -1327,28 +1585,55 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_50406</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001469</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001735</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_24870</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/ENVO_03510010</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001784</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001122</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001479</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_22563</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_36916</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001815</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/UBERON_0000465</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001311</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001309</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/ENVO_01000798</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_10545</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/ENVO_01003002</t>
+    <t>http://purl.obolibrary.org/obo/ENVO_00000340</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_03501249</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/ENVO_2000032</t>
@@ -1369,12 +1654,18 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_33250</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001647</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/ENVO_01001561</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/ENVO_21001217</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001011</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/ENVO_21001216</t>
   </si>
   <si>
@@ -1384,18 +1675,48 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_59999</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_03501196</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_46787</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_02000149</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001330</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001147</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001140</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000851</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/ENVO_01001685</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000542</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_03510019</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/ENVO_00000480</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/ENVO_01000723</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001013</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PCO_0000001</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/PATO_0000070</t>
   </si>
   <si>
@@ -1405,15 +1726,18 @@
     <t>http://purl.obolibrary.org/obo/PATO_0002063</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000007</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000401</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_27780</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_35195</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/IAO_0000007</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/IAO_0000104</t>
   </si>
   <si>
@@ -1423,15 +1747,24 @@
     <t>http://purl.obolibrary.org/obo/PATO_0000161</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000032</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/ENVO_01000580</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/ENVO_00002000</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_03000060</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/PATO_0000049</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001865</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/PATO_0000044</t>
   </si>
   <si>
@@ -1441,6 +1774,12 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_33893</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000698</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_03501210</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/ENVO_2000000</t>
   </si>
   <si>
@@ -1459,12 +1798,24 @@
     <t>http://purl.obolibrary.org/obo/ENVO_01000426</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000993</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001897</t>
+  </si>
+  <si>
     <t>{'altLabel': 'Shape'}</t>
   </si>
   <si>
     <t>{'label': 'duration'}</t>
   </si>
   <si>
+    <t>{'label': 'collection'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material'}</t>
+  </si>
+  <si>
     <t>{'label': 'container'}</t>
   </si>
   <si>
@@ -1474,6 +1825,9 @@
     <t>{'label': 'energy'}</t>
   </si>
   <si>
+    <t>{'label': 'Collection'}</t>
+  </si>
+  <si>
     <t>{'label': 'device'}</t>
   </si>
   <si>
@@ -1489,6 +1843,9 @@
     <t>{'altLabel': 'mass'}</t>
   </si>
   <si>
+    <t>{'label': 'space'}</t>
+  </si>
+  <si>
     <t>{'label': 'tube'}</t>
   </si>
   <si>
@@ -1528,6 +1885,12 @@
     <t>{'label': 'probe'}</t>
   </si>
   <si>
+    <t>{'label': 'observing'}</t>
+  </si>
+  <si>
+    <t>{'label': 'cooling'}</t>
+  </si>
+  <si>
     <t>{'label': 'ion'}</t>
   </si>
   <si>
@@ -1537,15 +1900,33 @@
     <t>{'altLabel': 'water'}</t>
   </si>
   <si>
+    <t>{'label': 'compound'}</t>
+  </si>
+  <si>
+    <t>{'label': 'gas'}</t>
+  </si>
+  <si>
+    <t>{'label': 'fluid'}</t>
+  </si>
+  <si>
     <t>{'label': 'anion'}</t>
   </si>
   <si>
     <t>{'label': 'cation'}</t>
   </si>
   <si>
+    <t>{'label': 'cell'}</t>
+  </si>
+  <si>
     <t>{'label': 'material anatomical entity'}</t>
   </si>
   <si>
+    <t>{'label': 'solid'}</t>
+  </si>
+  <si>
+    <t>{'label': 'liquid'}</t>
+  </si>
+  <si>
     <t>{'label': 'plasma'}</t>
   </si>
   <si>
@@ -1555,6 +1936,9 @@
     <t>{'label': 'particle'}</t>
   </si>
   <si>
+    <t>{'label': 'suspension'}</t>
+  </si>
+  <si>
     <t>{'label': 'thermal energy'}</t>
   </si>
   <si>
@@ -1573,12 +1957,18 @@
     <t>{'label': 'atom'}</t>
   </si>
   <si>
+    <t>{'label': 'colloid'}</t>
+  </si>
+  <si>
     <t>{'label': 'gel'}</t>
   </si>
   <si>
     <t>{'label': 'X-ray radiation'}</t>
   </si>
   <si>
+    <t>{'label': 'light'}</t>
+  </si>
+  <si>
     <t>{'label': 'ultraviolet radiation'}</t>
   </si>
   <si>
@@ -1588,18 +1978,48 @@
     <t>{'label': 'chemical substance'}</t>
   </si>
   <si>
+    <t>{'label': 'group'}</t>
+  </si>
+  <si>
     <t>{'label': 'solvent'}</t>
   </si>
   <si>
+    <t>{'label': 'hydrogen'}</t>
+  </si>
+  <si>
+    <t>{'label': 'nitrogen'}</t>
+  </si>
+  <si>
+    <t>{'label': 'helium'}</t>
+  </si>
+  <si>
+    <t>{'label': 'ammonia'}</t>
+  </si>
+  <si>
+    <t>{'label': 'methane'}</t>
+  </si>
+  <si>
     <t>{'label': 'bubble'}</t>
   </si>
   <si>
+    <t>{'label': 'ozone'}</t>
+  </si>
+  <si>
+    <t>{'label': 'cleaning'}</t>
+  </si>
+  <si>
     <t>{'label': 'peak'}</t>
   </si>
   <si>
     <t>{'label': 'melting'}</t>
   </si>
   <si>
+    <t>{'label': 'reflection'}</t>
+  </si>
+  <si>
+    <t>{'label': 'population'}</t>
+  </si>
+  <si>
     <t>{'label': 'electromagnetic radiation quality', 'prefLabel': 'electromagnetic radiation quality'}</t>
   </si>
   <si>
@@ -1612,15 +2032,18 @@
     <t>{'label': 'columnar'}</t>
   </si>
   <si>
+    <t>{'label': 'action'}</t>
+  </si>
+  <si>
+    <t>{'label': 'environment'}</t>
+  </si>
+  <si>
     <t>{'label': 'detergent'}</t>
   </si>
   <si>
     <t>{'label': 'surfactant'}</t>
   </si>
   <si>
-    <t>{'label': 'action specification'}</t>
-  </si>
-  <si>
     <t>{'label': 'plan specification'}</t>
   </si>
   <si>
@@ -1630,6 +2053,9 @@
     <t>{'label': 'rate'}</t>
   </si>
   <si>
+    <t>{'label': 'scalar'}</t>
+  </si>
+  <si>
     <t>{'label': 'telephone'}</t>
   </si>
   <si>
@@ -1642,6 +2068,9 @@
     <t>{'altLabel': 'pH'}</t>
   </si>
   <si>
+    <t>{'label': 'first'}</t>
+  </si>
+  <si>
     <t>{'altLabel': 'position'}</t>
   </si>
   <si>
@@ -1657,6 +2086,9 @@
     <t>{'altLabel': 'density'}</t>
   </si>
   <si>
+    <t>{'label': 'concentration'}</t>
+  </si>
+  <si>
     <t>{'label': 'frequency'}</t>
   </si>
   <si>
@@ -1696,6 +2128,12 @@
     <t>{'label': 'reagent'}</t>
   </si>
   <si>
+    <t>{'label': 'debris'}</t>
+  </si>
+  <si>
+    <t>{'label': 'control'}</t>
+  </si>
+  <si>
     <t>{'label': 'chemical product'}</t>
   </si>
   <si>
@@ -1717,7 +2155,328 @@
     <t>{'label': 'room'}</t>
   </si>
   <si>
+    <t>{'label': 'manufacturing'}</t>
+  </si>
+  <si>
+    <t>{'label': 'neutral'}</t>
+  </si>
+  <si>
     <t>{'altLabel': 'dimension'}</t>
+  </si>
+  <si>
+    <t>['A generically dependent continuant that is about some thing. [IAO]']</t>
+  </si>
+  <si>
+    <t>['A material entity is an independent continuant that has some portion of matter as proper or improper continuant part. [BFO]']</t>
+  </si>
+  <si>
+    <t>['p is a process if p is an occurrent that has temporal proper parts and for some time t, p specifically depends on some material entity at t. [BFO]', locstr("Process, i.e., a physical entity with a temporal evolution that 'has a meaning for the ontologist'", 'en')]</t>
+  </si>
+  <si>
+    <t>['A material entity consisting of multiple components that are causally integrated. [RO]']</t>
+  </si>
+  <si>
+    <t>['p is a process boundary if p is a temporal part of a process and p has no proper temporal parts. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A function is a disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A quality is a specifically dependent continuant that, in contrast to roles and dispositions, does not require any further process in order to be realized. [BFO]']</t>
+  </si>
+  <si>
+    <t>['An occurrent is an entity that unfolds itself in time or it is the instantaneous boundary of such an entity (for example a beginning or an ending) or it is a temporal or spatiotemporal region which such an entity occupies a temporal region or occupies a spatiotemporal region. [BFO]']</t>
+  </si>
+  <si>
+    <t>['To say that b is a realizable entity is to say that b is a specifically dependent continuant that inheres in some independent continuant which is not a spatial region and is of a type instances of which are realized in processes of a correlated type.´[BFO]', 'To say that b is a realizable entity is to say that b is a specifically dependent continuant that inheres in some independent continuant which is not a spatial region and is of a type instances of which are realized in processes of a correlated type. (axiom label in BFO2 Reference: [058-002])']</t>
+  </si>
+  <si>
+    <t>['A continuant is an entity that persists, endures, or continues to exist through time while maintaining its identity. [BFO]']</t>
+  </si>
+  <si>
+    <t>['b is an independent continuant if b is a continuant which is such that there is no c and no t such that b s-depends_on c at t. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A spatial region is a continuant entity that is a continuant part of space R as defined relative to some frame R. [BFO]']</t>
+  </si>
+  <si>
+    <t>['An entity is anything that exists or has existed or will exist. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A temporal region is an occurrent entity that is part of time as defined relative to some reference frame. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A spatiotemporal region is an occurrent entity that is part of spacetime. [BFO]']</t>
+  </si>
+  <si>
+    <t>['b is a specifically dependent continuant if b is a continuant and there is some independent continuant c which is not a spatial region and which is such that b specifically depends on c at every time t during the course of b’s existence. [BFO]']</t>
+  </si>
+  <si>
+    <t>['b is a generically dependent continuant if b is a continuant that generically depends on one or more other entities. [BFO]']</t>
+  </si>
+  <si>
+    <t>['B is a role means: b is a realizable entity and b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to be and b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed. [BFO]']</t>
+  </si>
+  <si>
+    <t>['B is a disposition means: b is a realizable entity and b’s bearer is some material entity and b is such that if it ceases to exist, then its bearer is physically changed, and b’s realization occurs when and because this bearer is in some special physical circumstances, and this realization occurs in virtue of the bearer’s physical make-up. [BFO]']</t>
+  </si>
+  <si>
+    <t>['B is a fiat object part if b is a material entity which is such that for all times t, if b exists at t then there is some object c such that b is a proper continuant part of c at t and c is demarcated from the remainder of c by a two-dimensional continuant fiat boundary. [BFO]']</t>
+  </si>
+  <si>
+    <t>['B is a site means: b is a three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof. [BFO]']</t>
+  </si>
+  <si>
+    <t>['Any constitutionally or isotopically distinct atom, molecule, ion, ion pair, radical, radical ion, complex, conformer etc., identifiable as a separately distinguishable entity. [IUPAC]']</t>
+  </si>
+  <si>
+    <t>['An oxygen hydride consisting of an oxygen atom that is covalently bonded to two hydrogen atoms. [CHEBI]']</t>
+  </si>
+  <si>
+    <t>['A nuclear particle is a nucleus or any of its constituents in any of their energy states. [CHEBI]']</t>
+  </si>
+  <si>
+    <t>["A physical quality that inheres in a bearer by virtue of the proportion of the bearer's amount of matter. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['Lepton is a fermion that does not experience the strong force (strong interaction). [CHEBI]']</t>
+  </si>
+  <si>
+    <t>['B is an object means: b is a material entity which manifests causal unity of one or other of the types causal unities and is of a type (a material universal) instances of which are maximal relative to this criterion of causal unity.\n\nTo say that b is causally unified means: b is a material entity which is such that its material parts are tied together in such a way that, in environments typical for entities of the type in question,if c, a continuant part of b that is in the interior of b at t, is larger than a certain threshold size (which will be determined differently from case to case, depending on factors such as porosity of external cover) and is moved in space to be at t at a location on the exterior of the spatial region that had been occupied by b at t, then either b’s other parts will be moved in coordinated fashion or b will be damaged (be affected, for example, by breakage or tearing) in the interval between t and t. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A nucleon is either a proton or a neutron. [Wikipedia]']</t>
+  </si>
+  <si>
+    <t>['A member of the the species Homo sapiens. [Allotrope]']</t>
+  </si>
+  <si>
+    <t>['B is an object aggregate means: b is a material entity consisting exactly of a plurality of objects as member parts at all times at which b exists. [BFO]']</t>
+  </si>
+  <si>
+    <t>['The mixture of gases (roughly (by molar content/volume: 78% nitrogen, 20.95% oxygen, 0.93% argon, 0.038% carbon dioxide, trace amounts of other gases, and a variable amount (average around 1%) of water vapor) that surrounds the planet Earth. [ENVO]']</t>
+  </si>
+  <si>
+    <t>['A nitrogen oxoanion formed by loss of a proton from nitric acid. [CHEBI]']</t>
+  </si>
+  <si>
+    <t>['An elemental molecule consisting of two hydrogens joined by a single bond. [CHEBI]']</t>
+  </si>
+  <si>
+    <t>['An elemental molecule consisting of two bivalently-bonded oxygen atoms. [Allotrope]']</t>
+  </si>
+  <si>
+    <t>['An elemental molecule consisting of two trivalently-bonded nitrogen atoms. [CHEBI]']</t>
+  </si>
+  <si>
+    <t>['A one-carbon compound with formula CO2 in which the carbon is attached to each oxygen atom by a double bond. [CHEBI]']</t>
+  </si>
+  <si>
+    <t>['An azane that consists of a single nitrogen atom covelently bonded to three hydrogen atoms. [CHEBI]']</t>
+  </si>
+  <si>
+    <t>['A one-carbon compound in which the carbon is attached by single bonds to four hydrogen atoms. [CHEBI]']</t>
+  </si>
+  <si>
+    <t>['An elemental molecule with formula O3. [CHEBI]']</t>
+  </si>
+  <si>
+    <t>['A one-carbon compound in which the carbon is joined only to a single oxygen. [CHEBI]']</t>
+  </si>
+  <si>
+    <t>["A 3-D extent quality inhering in a bearer by virtue of the bearer's amount of 3-dimensional space it occupies."]</t>
+  </si>
+  <si>
+    <t>['A processual entity that realizes a plan which is the concretization of a plan specification. [IAO]']</t>
+  </si>
+  <si>
+    <t>["A concentration quality inhering in a bearer by virtue of the bearer's containing acid (hydrogen ions). [PATO]"]</t>
+  </si>
+  <si>
+    <t>["A physical quality that inheres in a bearer by virtue of the bearer's amount of force per unit area it exerts."]</t>
+  </si>
+  <si>
+    <t>["Concentration is a molecular quality inhering in a substance by virtue of the amount of the bearer's there is mixed with another substance. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['A physical quality of the thermal energy of a system. [PATO]']</t>
+  </si>
+  <si>
+    <t>["A physical quality inhering in a bearer by virtue of the rate of the bearer's angular movement about an axis; the angle rotated in a given time. [PATO]"]</t>
+  </si>
+  <si>
+    <t>["An area is a 2-D extent quality inhering in a bearer by virtue of the bearer's two dimensional extent. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['An image is an affine projection to a two dimensional surface, of measurements of some quality of an entity or entities repeated at regular intervals across a spatial range, where the measurements are represented as color and luminosity on the projected on surface. [IAO]']</t>
+  </si>
+  <si>
+    <t>['A 1-D extent quality which is equal to the distance between two points. [PATO]']</t>
+  </si>
+  <si>
+    <t>["A morphology quality inhering in a bearer by virtue of the bearer's physical magnitude. [PATO]"]</t>
+  </si>
+  <si>
+    <t>["A physical quality inhering in a bearer by virtue of the bearer's rate of change of the position. [PATO]"]</t>
+  </si>
+  <si>
+    <t>["A physical quality inhering in a bearer by virtue of the bearer's disposition to transmit of an entity through a medium. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['An EM radiation quality in which the EM radiation is within the fiat range of the spectrum visible deemed to be light. [PATO]']</t>
+  </si>
+  <si>
+    <t>['A physical quality that inheres in an bearer by virtue of how that bearer interacts with electromagnetic radiation. [PATO]']</t>
+  </si>
+  <si>
+    <t>["A quality of a single physical entity inhering in the bearer by virtue of the bearer's size or shape or structure. [PATO]"]</t>
+  </si>
+  <si>
+    <t>["A physical quality inhering in a bearer by virtue of the bearer's participation in movement. [PATO]"]</t>
+  </si>
+  <si>
+    <t>["A single physical entity inhering in an bearer by virtue of the bearer's quantities or relative ratios of subparts. [PATO]"]</t>
+  </si>
+  <si>
+    <t>["A physical quality inhering in a bearer by virtue of the bearer's motion through a surface per time. [Allotrope]"]</t>
+  </si>
+  <si>
+    <t>["A permeability quality inhering in a bearer by virtue of the bearer's disposition to admit the passage of gas or liquid through pores or interstices. [PATO]"]</t>
+  </si>
+  <si>
+    <t>["A morphology quality inhering in a bearer by virtue of the bearer's relative position, shape, arrangements and connectivity of an material entity's various parts; the pattern underlying its form. [PATO]"]</t>
+  </si>
+  <si>
+    <t>["A morphological quality inhering in a bearer by virtue of the bearer's ratios of distances between its features (points, edges, surfaces and also holes etc). [PATO]"]</t>
+  </si>
+  <si>
+    <t>["Position is a  spatial quality inhering in a bearer by virtue of the bearer's spatial location relative to other objects in the vicinity. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['A one-dimensional temporal region is a temporal region that is extended. [BFO]']</t>
+  </si>
+  <si>
+    <t>["An organismal quality inhering in a bearer or a population by virtue of the bearer's disposition to survive and develop normally or the number of surviving individuals in a given population. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['Electrical conductivity is the quality inhered in a conductor that is the reciprocal of resistivity. [IUPAC]']</t>
+  </si>
+  <si>
+    <t>['A 1-D extent quality which is equal to the dimension through an object as opposed to its length or width. [PATO]']</t>
+  </si>
+  <si>
+    <t>["A 1-D extent quality inhering in a bearer by virtue of the bearer's downward or backward or inward dimenision. [PATO]"]</t>
+  </si>
+  <si>
+    <t>["A quality inhering in air by virtue of the partial pressure exerted by the bearer's water vapour content. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['A 1-D extent quality which is equal to the distance from one side of an object to another side which is opposite. [PATO]']</t>
+  </si>
+  <si>
+    <t>['A compound that contains two or more hydroxy groups.. [CHEBI]']</t>
+  </si>
+  <si>
+    <t>["A physical quality of a fluid inhering in a bearer by virtue of the bearer's disposition to internal resistance to flow. [PATO]"]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['B is a continuant fiat boundary if b is an immaterial entity that is of zero, one or two dimensions and does not include a spatial region as part. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A one-dimensional continuant fiat boundary is a continuous fiat line whose location is defined in relation to some material entity.  [BFO]']</t>
+  </si>
+  <si>
+    <t>['A two-dimensional continuant fiat boundary (surface) is a self-connected fiat surface whose location is defined in relation to some material entity. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A molecule is a polyatomic molecular entity that is an electrically neutral entity consisting of more than one atom. [Allotrope]']</t>
+  </si>
+  <si>
+    <t>['A subatomic particle is a material that is below the scale of an atom. [Allotrope]']</t>
+  </si>
+  <si>
+    <t>['A photon is a particle of zero charge, zero rest mass, spin quantum number 1, energy hν and momentum hν/c (h is the Planck constant, ν the frequency of radiation and c the speed of light), carrier of electromagnetic force. [IUPAC]']</t>
+  </si>
+  <si>
+    <t>['A boson is a particle that follows Bose–Einstein statistics. [Wikipedia]']</t>
+  </si>
+  <si>
+    <t>['Baryon is a fermion that does experience the strong force (strong interaction). [CHEBI]']</t>
+  </si>
+  <si>
+    <t>['Particle of half-integer spin quantum number following Fermi-Dirac statistics. [CHEBI]']</t>
+  </si>
+  <si>
+    <t>['An environmental material is a fiat object which forms the medium or part of the medium of an environmental system. [ENVO]']</t>
+  </si>
+  <si>
+    <t>['A system which has the disposition to environ one or more material entities. [ENVO]']</t>
+  </si>
+  <si>
+    <t>['A directive information entity that describes an intended process endpoint. When part of a plan specification the concretization is realized in a planned process in which the bearer tries to effect the world so that the process endpoint is achieved. [IAO]']</t>
+  </si>
+  <si>
+    <t>['An information content entity consisting of a two dimensional arrangement of information content entities such that the arrangement itself is about something. [IAO]']</t>
+  </si>
+  <si>
+    <t>['A material entity that is an individual living system, such as animal, plant, bacteria or virus, that is capable of replicating or reproducing, growth and maintenance in the right environment. An organism may be unicellular or made up, like humans, of many billions of cells divided into specialized tissues and organs. [OBI]']</t>
+  </si>
+  <si>
+    <t>['Is a material entity that is created or changed during material processing. [OBI]']</t>
+  </si>
+  <si>
+    <t>["A physical quality inhering in a bearer by virtue of the bearer's scalar absolute value of the rate of change of the bearer's position. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['A color is a composite chromatic quality composed of hue, saturation and intensity parts. [PATO]']</t>
+  </si>
+  <si>
+    <t>['Fluorescence is a luminescence which occurs essentially only during the irradiation of a substance by electromagnetic radiation. [IUPAC]']</t>
+  </si>
+  <si>
+    <t>["A physical quality inhering in a bearer by virtue of the bearer's resistance to pressure, being broken, or pierced."]</t>
+  </si>
+  <si>
+    <t>["A size quality inhering in an bearer by virtue of the bearer's extension in one dimension. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['A quality that inheres in an entire organism or part of an organism. [PATO]']</t>
+  </si>
+  <si>
+    <t>["A size quality inhering in an bearer by virtue of the bearer's extension in three dimensions. [PATO]"]</t>
+  </si>
+  <si>
+    <t>["A structural quality inhering in a bearer by virtue of the bearer's disposition to being permeated or pervaded by a gas or liquid (as by osmosis or diffusion). [PATO]"]</t>
+  </si>
+  <si>
+    <t>["A porosity quality inhering in a bearer by virtue of the bearer's being capable of admitting the passage of gas or liquid through pores or interstices. [PATO]"]</t>
+  </si>
+  <si>
+    <t>["A porosity quality inhering in a bearer by virtue of the bearer's being incapable of admitting the passage of gas or liquid through pores or interstices. [PATO]"]</t>
+  </si>
+  <si>
+    <t>["A physical quality which inheres in a bearer by virtue of some influence is exerted by the bearer's mass per unit size."]</t>
+  </si>
+  <si>
+    <t>['A concentration that is relatively high. [Allotrope]']</t>
+  </si>
+  <si>
+    <t>['A concentration which is relatively low. [PATO]']</t>
+  </si>
+  <si>
+    <t>["A quality inhering in a bearer by virtue of the bearer's power or force."]</t>
+  </si>
+  <si>
+    <t>["A 2-D extend is a  size quality inhering in an bearer by virtue of the bearer's extension in two dimensions. [PATO]"]</t>
+  </si>
+  <si>
+    <t>["A viability quality inhering in a bearer by virtue of the cessation of the bearer's life. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['A physical quality inhering in a fluid (liquid or gas) by virtue of the amount of fluid which passes through a given surface per unit time. [PATO]']</t>
   </si>
 </sst>
 </file>
@@ -2088,13 +2847,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E208"/>
+  <dimension ref="A1:F249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2107,3524 +2866,4968 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>253</v>
+      </c>
+      <c r="F2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>254</v>
+      </c>
+      <c r="F3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>255</v>
+      </c>
+      <c r="F4" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>256</v>
+      </c>
+      <c r="F5" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>257</v>
+      </c>
+      <c r="F6" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>258</v>
+      </c>
+      <c r="F7" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>259</v>
+      </c>
+      <c r="F8" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>260</v>
+      </c>
+      <c r="F9" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>261</v>
+      </c>
+      <c r="F10" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>262</v>
+      </c>
+      <c r="F11" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F12" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>264</v>
+      </c>
+      <c r="F13" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>265</v>
+      </c>
+      <c r="F14" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>266</v>
+      </c>
+      <c r="F15" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>268</v>
+      </c>
+      <c r="F17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>269</v>
+      </c>
+      <c r="F18" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>270</v>
+      </c>
+      <c r="F19" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>271</v>
+      </c>
+      <c r="F20" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>272</v>
+      </c>
+      <c r="F21" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>273</v>
+      </c>
+      <c r="F22" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>274</v>
+      </c>
+      <c r="F23" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>275</v>
+      </c>
+      <c r="F24" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>234</v>
+        <v>276</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>276</v>
+      </c>
+      <c r="F25" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>277</v>
+      </c>
+      <c r="F26" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>278</v>
+      </c>
+      <c r="F27" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>279</v>
+      </c>
+      <c r="F28" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>238</v>
+        <v>280</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>280</v>
+      </c>
+      <c r="F29" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>281</v>
+      </c>
+      <c r="F30" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>282</v>
+      </c>
+      <c r="F31" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>283</v>
+      </c>
+      <c r="F32" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>284</v>
+      </c>
+      <c r="F33" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>285</v>
+      </c>
+      <c r="F34" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>286</v>
+      </c>
+      <c r="F35" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>287</v>
+      </c>
+      <c r="F36" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>288</v>
+      </c>
+      <c r="F37" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>289</v>
+      </c>
+      <c r="F38" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>290</v>
+      </c>
+      <c r="F39" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>291</v>
+      </c>
+      <c r="F40" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>292</v>
+      </c>
+      <c r="F41" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>293</v>
+      </c>
+      <c r="F42" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>294</v>
+      </c>
+      <c r="F43" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>295</v>
+      </c>
+      <c r="F44" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>296</v>
+      </c>
+      <c r="F45" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>297</v>
+      </c>
+      <c r="F46" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>298</v>
+      </c>
+      <c r="F47" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>299</v>
+      </c>
+      <c r="F48" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>300</v>
+      </c>
+      <c r="F49" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>301</v>
+      </c>
+      <c r="F50" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>302</v>
+      </c>
+      <c r="F51" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E52" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>303</v>
+      </c>
+      <c r="F52" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E53" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>304</v>
+      </c>
+      <c r="F53" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>305</v>
+      </c>
+      <c r="F54" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>306</v>
+      </c>
+      <c r="F55" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>307</v>
+      </c>
+      <c r="F56" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>308</v>
+      </c>
+      <c r="F57" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E58" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>309</v>
+      </c>
+      <c r="F58" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E59" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>310</v>
+      </c>
+      <c r="F59" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>311</v>
+      </c>
+      <c r="F60" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>312</v>
+      </c>
+      <c r="F61" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>313</v>
+      </c>
+      <c r="F62" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>314</v>
+      </c>
+      <c r="F63" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>315</v>
+      </c>
+      <c r="F64" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>316</v>
+      </c>
+      <c r="F65" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>317</v>
+      </c>
+      <c r="F66" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>318</v>
+      </c>
+      <c r="F67" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E68" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>319</v>
+      </c>
+      <c r="F68" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E69" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>320</v>
+      </c>
+      <c r="F69" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>321</v>
+      </c>
+      <c r="F70" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>322</v>
+      </c>
+      <c r="F71" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>323</v>
+      </c>
+      <c r="F72" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E73" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>324</v>
+      </c>
+      <c r="F73" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E74" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>325</v>
+      </c>
+      <c r="F74" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>326</v>
+      </c>
+      <c r="F75" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E76" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>327</v>
+      </c>
+      <c r="F76" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>328</v>
+      </c>
+      <c r="F77" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E78" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>329</v>
+      </c>
+      <c r="F78" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E79" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>330</v>
+      </c>
+      <c r="F79" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E80" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>331</v>
+      </c>
+      <c r="F80" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E81" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>332</v>
+      </c>
+      <c r="F81" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>333</v>
+      </c>
+      <c r="F82" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E83" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>334</v>
+      </c>
+      <c r="F83" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E84" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>335</v>
+      </c>
+      <c r="F84" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E85" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>336</v>
+      </c>
+      <c r="F85" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E86" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>337</v>
+      </c>
+      <c r="F86" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E87" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>338</v>
+      </c>
+      <c r="F87" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E88" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>339</v>
+      </c>
+      <c r="F88" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E89" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>340</v>
+      </c>
+      <c r="F89" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>341</v>
+      </c>
+      <c r="F90" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E91" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>342</v>
+      </c>
+      <c r="F91" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E92" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>343</v>
+      </c>
+      <c r="F92" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E93" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>344</v>
+      </c>
+      <c r="F93" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E94" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>345</v>
+      </c>
+      <c r="F94" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E95" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>346</v>
+      </c>
+      <c r="F95" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E96" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>347</v>
+      </c>
+      <c r="F96" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E97" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>348</v>
+      </c>
+      <c r="F97" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E98" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>349</v>
+      </c>
+      <c r="F98" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E99" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>350</v>
+      </c>
+      <c r="F99" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E100" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>351</v>
+      </c>
+      <c r="F100" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E101" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>352</v>
+      </c>
+      <c r="F101" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E102" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>353</v>
+      </c>
+      <c r="F102" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E103" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>354</v>
+      </c>
+      <c r="F103" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E104" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>355</v>
+      </c>
+      <c r="F104" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E105" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>356</v>
+      </c>
+      <c r="F105" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E106" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>357</v>
+      </c>
+      <c r="F106" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E107" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>596</v>
+      </c>
+      <c r="F107" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>418</v>
+        <v>501</v>
       </c>
       <c r="E108" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>597</v>
+      </c>
+      <c r="F108" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>419</v>
+        <v>502</v>
       </c>
       <c r="E109" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>598</v>
+      </c>
+      <c r="F109" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>420</v>
+        <v>503</v>
       </c>
       <c r="E110" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>599</v>
+      </c>
+      <c r="F110" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>421</v>
+        <v>504</v>
       </c>
       <c r="E111" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>600</v>
+      </c>
+      <c r="F111" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>422</v>
+        <v>505</v>
       </c>
       <c r="E112" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>601</v>
+      </c>
+      <c r="F112" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>423</v>
+        <v>506</v>
       </c>
       <c r="E113" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>602</v>
+      </c>
+      <c r="F113" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>7</v>
+        <v>502</v>
       </c>
       <c r="E114" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>603</v>
+      </c>
+      <c r="F114" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>424</v>
+        <v>507</v>
       </c>
       <c r="E115" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>604</v>
+      </c>
+      <c r="F115" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>28</v>
+        <v>508</v>
       </c>
       <c r="E116" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>605</v>
+      </c>
+      <c r="F116" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>425</v>
+        <v>8</v>
       </c>
       <c r="E117" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>606</v>
+      </c>
+      <c r="F117" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>426</v>
+        <v>509</v>
       </c>
       <c r="E118" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>607</v>
+      </c>
+      <c r="F118" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E119" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>608</v>
+      </c>
+      <c r="F119" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>427</v>
+        <v>510</v>
       </c>
       <c r="E120" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>609</v>
+      </c>
+      <c r="F120" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>428</v>
+        <v>511</v>
       </c>
       <c r="E121" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>610</v>
+      </c>
+      <c r="F121" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>429</v>
+        <v>512</v>
       </c>
       <c r="E122" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>611</v>
+      </c>
+      <c r="F122" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>423</v>
+        <v>50</v>
       </c>
       <c r="E123" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>612</v>
+      </c>
+      <c r="F123" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>424</v>
+        <v>513</v>
       </c>
       <c r="E124" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>613</v>
+      </c>
+      <c r="F124" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>430</v>
+        <v>514</v>
       </c>
       <c r="E125" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>614</v>
+      </c>
+      <c r="F125" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>431</v>
+        <v>515</v>
       </c>
       <c r="E126" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>615</v>
+      </c>
+      <c r="F126" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>432</v>
+        <v>508</v>
       </c>
       <c r="E127" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>605</v>
+      </c>
+      <c r="F127" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>433</v>
+        <v>509</v>
       </c>
       <c r="E128" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>607</v>
+      </c>
+      <c r="F128" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>434</v>
+        <v>516</v>
       </c>
       <c r="E129" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>616</v>
+      </c>
+      <c r="F129" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>435</v>
+        <v>517</v>
       </c>
       <c r="E130" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>617</v>
+      </c>
+      <c r="F130" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>435</v>
+        <v>518</v>
       </c>
       <c r="E131" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>618</v>
+      </c>
+      <c r="F131" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>436</v>
+        <v>519</v>
       </c>
       <c r="E132" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>619</v>
+      </c>
+      <c r="F132" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>437</v>
+        <v>520</v>
       </c>
       <c r="E133" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>620</v>
+      </c>
+      <c r="F133" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>438</v>
+        <v>521</v>
       </c>
       <c r="E134" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>621</v>
+      </c>
+      <c r="F134" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>26</v>
+        <v>521</v>
       </c>
       <c r="E135" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>621</v>
+      </c>
+      <c r="F135" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>439</v>
+        <v>522</v>
       </c>
       <c r="E136" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>622</v>
+      </c>
+      <c r="F136" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>440</v>
+        <v>502</v>
       </c>
       <c r="E137" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>598</v>
+      </c>
+      <c r="F137" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>441</v>
+        <v>523</v>
       </c>
       <c r="E138" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>623</v>
+      </c>
+      <c r="F138" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>442</v>
+        <v>524</v>
       </c>
       <c r="E139" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>624</v>
+      </c>
+      <c r="F139" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>442</v>
+        <v>525</v>
       </c>
       <c r="E140" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>625</v>
+      </c>
+      <c r="F140" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>443</v>
+        <v>526</v>
       </c>
       <c r="E141" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>626</v>
+      </c>
+      <c r="F141" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>444</v>
+        <v>27</v>
       </c>
       <c r="E142" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>627</v>
+      </c>
+      <c r="F142" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>445</v>
+        <v>527</v>
       </c>
       <c r="E143" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>628</v>
+      </c>
+      <c r="F143" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>446</v>
+        <v>528</v>
       </c>
       <c r="E144" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>629</v>
+      </c>
+      <c r="F144" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>447</v>
+        <v>528</v>
       </c>
       <c r="E145" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>629</v>
+      </c>
+      <c r="F145" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>448</v>
+        <v>529</v>
       </c>
       <c r="E146" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>630</v>
+      </c>
+      <c r="F146" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>449</v>
+        <v>530</v>
       </c>
       <c r="E147" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>631</v>
+      </c>
+      <c r="F147" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>450</v>
+        <v>531</v>
       </c>
       <c r="E148" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>632</v>
+      </c>
+      <c r="F148" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>451</v>
+        <v>532</v>
       </c>
       <c r="E149" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>633</v>
+      </c>
+      <c r="F149" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>452</v>
+        <v>533</v>
       </c>
       <c r="E150" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>634</v>
+      </c>
+      <c r="F150" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>453</v>
+        <v>534</v>
       </c>
       <c r="E151" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>635</v>
+      </c>
+      <c r="F151" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>454</v>
+        <v>534</v>
       </c>
       <c r="E152" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>635</v>
+      </c>
+      <c r="F152" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>455</v>
+        <v>535</v>
       </c>
       <c r="E153" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>636</v>
+      </c>
+      <c r="F153" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>456</v>
+        <v>535</v>
       </c>
       <c r="E154" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>636</v>
+      </c>
+      <c r="F154" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>457</v>
+        <v>536</v>
       </c>
       <c r="E155" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>637</v>
+      </c>
+      <c r="F155" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>458</v>
+        <v>536</v>
       </c>
       <c r="E156" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>637</v>
+      </c>
+      <c r="F156" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>459</v>
+        <v>537</v>
       </c>
       <c r="E157" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>638</v>
+      </c>
+      <c r="F157" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>451</v>
+        <v>538</v>
       </c>
       <c r="E158" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>639</v>
+      </c>
+      <c r="F158" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>58</v>
+        <v>539</v>
       </c>
       <c r="E159" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>640</v>
+      </c>
+      <c r="F159" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="E160" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>641</v>
+      </c>
+      <c r="F160" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>461</v>
+        <v>541</v>
       </c>
       <c r="E161" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>642</v>
+      </c>
+      <c r="F161" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>421</v>
+        <v>542</v>
       </c>
       <c r="E162" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>643</v>
+      </c>
+      <c r="F162" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>462</v>
+        <v>543</v>
       </c>
       <c r="E163" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>644</v>
+      </c>
+      <c r="F163" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>463</v>
+        <v>544</v>
       </c>
       <c r="E164" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>645</v>
+      </c>
+      <c r="F164" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>464</v>
+        <v>545</v>
       </c>
       <c r="E165" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>646</v>
+      </c>
+      <c r="F165" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>465</v>
+        <v>546</v>
       </c>
       <c r="E166" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>647</v>
+      </c>
+      <c r="F166" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>466</v>
+        <v>547</v>
       </c>
       <c r="E167" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>648</v>
+      </c>
+      <c r="F167" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>467</v>
+        <v>548</v>
       </c>
       <c r="E168" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>649</v>
+      </c>
+      <c r="F168" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>468</v>
+        <v>549</v>
       </c>
       <c r="E169" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>650</v>
+      </c>
+      <c r="F169" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>432</v>
+        <v>550</v>
       </c>
       <c r="E170" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>651</v>
+      </c>
+      <c r="F170" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>469</v>
+        <v>551</v>
       </c>
       <c r="E171" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>652</v>
+      </c>
+      <c r="F171" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>470</v>
+        <v>552</v>
       </c>
       <c r="E172" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>653</v>
+      </c>
+      <c r="F172" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>68</v>
+        <v>553</v>
       </c>
       <c r="E173" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>654</v>
+      </c>
+      <c r="F173" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>46</v>
+        <v>554</v>
       </c>
       <c r="E174" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>655</v>
+      </c>
+      <c r="F174" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C175" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>66</v>
+        <v>555</v>
       </c>
       <c r="E175" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <v>656</v>
+      </c>
+      <c r="F175" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>61</v>
+        <v>556</v>
       </c>
       <c r="E176" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <v>657</v>
+      </c>
+      <c r="F176" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C177" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>56</v>
+        <v>557</v>
       </c>
       <c r="E177" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>658</v>
+      </c>
+      <c r="F177" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C178" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>471</v>
+        <v>558</v>
       </c>
       <c r="E178" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>659</v>
+      </c>
+      <c r="F178" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C179" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>471</v>
+        <v>559</v>
       </c>
       <c r="E179" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>660</v>
+      </c>
+      <c r="F179" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C180" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>471</v>
+        <v>560</v>
       </c>
       <c r="E180" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <v>661</v>
+      </c>
+      <c r="F180" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C181" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>102</v>
+        <v>561</v>
       </c>
       <c r="E181" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>662</v>
+      </c>
+      <c r="F181" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C182" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>472</v>
+        <v>556</v>
       </c>
       <c r="E182" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>657</v>
+      </c>
+      <c r="F182" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C183" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>53</v>
+        <v>562</v>
       </c>
       <c r="E183" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>663</v>
+      </c>
+      <c r="F183" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C184" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>44</v>
+        <v>563</v>
       </c>
       <c r="E184" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>664</v>
+      </c>
+      <c r="F184" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C185" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>421</v>
+        <v>564</v>
       </c>
       <c r="E185" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>665</v>
+      </c>
+      <c r="F185" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C186" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>62</v>
+        <v>565</v>
       </c>
       <c r="E186" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>666</v>
+      </c>
+      <c r="F186" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C187" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>47</v>
+        <v>566</v>
       </c>
       <c r="E187" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <v>667</v>
+      </c>
+      <c r="F187" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C188" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>50</v>
+        <v>547</v>
       </c>
       <c r="E188" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <v>648</v>
+      </c>
+      <c r="F188" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C189" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E189" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>668</v>
+      </c>
+      <c r="F189" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C190" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>51</v>
+        <v>567</v>
       </c>
       <c r="E190" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+        <v>669</v>
+      </c>
+      <c r="F190" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C191" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>70</v>
+        <v>568</v>
       </c>
       <c r="E191" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+        <v>670</v>
+      </c>
+      <c r="F191" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C192" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>72</v>
+        <v>506</v>
       </c>
       <c r="E192" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>602</v>
+      </c>
+      <c r="F192" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C193" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>73</v>
+        <v>569</v>
       </c>
       <c r="E193" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>671</v>
+      </c>
+      <c r="F193" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C194" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>473</v>
+        <v>570</v>
       </c>
       <c r="E194" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>672</v>
+      </c>
+      <c r="F194" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C195" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>7</v>
+        <v>571</v>
       </c>
       <c r="E195" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+        <v>673</v>
+      </c>
+      <c r="F195" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>474</v>
+        <v>572</v>
       </c>
       <c r="E196" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+        <v>674</v>
+      </c>
+      <c r="F196" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C197" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>463</v>
+        <v>573</v>
       </c>
       <c r="E197" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+        <v>675</v>
+      </c>
+      <c r="F197" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C198" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>463</v>
+        <v>574</v>
       </c>
       <c r="E198" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+        <v>676</v>
+      </c>
+      <c r="F198" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C199" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="E199" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <v>677</v>
+      </c>
+      <c r="F199" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C200" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>476</v>
+        <v>576</v>
       </c>
       <c r="E200" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+        <v>678</v>
+      </c>
+      <c r="F200" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C201" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>477</v>
+        <v>577</v>
       </c>
       <c r="E201" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+        <v>679</v>
+      </c>
+      <c r="F201" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C202" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="E202" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+        <v>618</v>
+      </c>
+      <c r="F202" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C203" t="s">
-        <v>412</v>
+        <v>454</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>24</v>
+        <v>578</v>
       </c>
       <c r="E203" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+        <v>680</v>
+      </c>
+      <c r="F203" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C204" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>433</v>
+        <v>579</v>
       </c>
       <c r="E204" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+        <v>681</v>
+      </c>
+      <c r="F204" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C205" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>479</v>
+        <v>69</v>
       </c>
       <c r="E205" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+        <v>682</v>
+      </c>
+      <c r="F205" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C206" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>480</v>
+        <v>47</v>
       </c>
       <c r="E206" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+        <v>683</v>
+      </c>
+      <c r="F206" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C207" t="s">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>434</v>
+        <v>580</v>
       </c>
       <c r="E207" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+        <v>684</v>
+      </c>
+      <c r="F207" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C208" t="s">
+        <v>459</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E208" t="s">
+        <v>667</v>
+      </c>
+      <c r="F208" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C209" t="s">
+        <v>460</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E209" t="s">
+        <v>685</v>
+      </c>
+      <c r="F209" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C210" t="s">
+        <v>461</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E210" t="s">
+        <v>686</v>
+      </c>
+      <c r="F210" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C211" t="s">
+        <v>462</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E211" t="s">
+        <v>687</v>
+      </c>
+      <c r="F211" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="C208" t="s">
-        <v>417</v>
-      </c>
-      <c r="D208" s="2" t="s">
+      <c r="B212" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C212" t="s">
+        <v>463</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="E212" t="s">
+        <v>688</v>
+      </c>
+      <c r="F212" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C213" t="s">
+        <v>464</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="E213" t="s">
+        <v>688</v>
+      </c>
+      <c r="F213" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C214" t="s">
+        <v>465</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="E214" t="s">
+        <v>688</v>
+      </c>
+      <c r="F214" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C215" t="s">
+        <v>466</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E215" t="s">
+        <v>689</v>
+      </c>
+      <c r="F215" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C216" t="s">
+        <v>467</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E216" t="s">
+        <v>690</v>
+      </c>
+      <c r="F216" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C217" t="s">
+        <v>468</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E217" t="s">
+        <v>691</v>
+      </c>
+      <c r="F217" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C218" t="s">
+        <v>469</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E208" t="s">
-        <v>567</v>
+      <c r="E218" t="s">
+        <v>692</v>
+      </c>
+      <c r="F218" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C219" t="s">
+        <v>470</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E219" t="s">
+        <v>693</v>
+      </c>
+      <c r="F219" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C220" t="s">
+        <v>471</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E220" t="s">
+        <v>602</v>
+      </c>
+      <c r="F220" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C221" t="s">
+        <v>472</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E221" t="s">
+        <v>694</v>
+      </c>
+      <c r="F221" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C222" t="s">
+        <v>473</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E222" t="s">
+        <v>695</v>
+      </c>
+      <c r="F222" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C223" t="s">
+        <v>474</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E223" t="s">
+        <v>696</v>
+      </c>
+      <c r="F223" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C224" t="s">
+        <v>475</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E224" t="s">
+        <v>697</v>
+      </c>
+      <c r="F224" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C225" t="s">
+        <v>476</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E225" t="s">
+        <v>698</v>
+      </c>
+      <c r="F225" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C226" t="s">
+        <v>477</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E226" t="s">
+        <v>699</v>
+      </c>
+      <c r="F226" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C227" t="s">
+        <v>478</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E227" t="s">
+        <v>700</v>
+      </c>
+      <c r="F227" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C228" t="s">
+        <v>479</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E228" t="s">
+        <v>701</v>
+      </c>
+      <c r="F228" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C229" t="s">
+        <v>480</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E229" t="s">
+        <v>702</v>
+      </c>
+      <c r="F229" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C230" t="s">
+        <v>481</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E230" t="s">
+        <v>606</v>
+      </c>
+      <c r="F230" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C231" t="s">
+        <v>482</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E231" t="s">
+        <v>703</v>
+      </c>
+      <c r="F231" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C232" t="s">
+        <v>483</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E232" t="s">
+        <v>704</v>
+      </c>
+      <c r="F232" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C233" t="s">
+        <v>484</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E233" t="s">
+        <v>674</v>
+      </c>
+      <c r="F233" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C234" t="s">
+        <v>485</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E234" t="s">
+        <v>674</v>
+      </c>
+      <c r="F234" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C235" t="s">
+        <v>486</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E235" t="s">
+        <v>705</v>
+      </c>
+      <c r="F235" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C236" t="s">
+        <v>487</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E236" t="s">
+        <v>706</v>
+      </c>
+      <c r="F236" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C237" t="s">
+        <v>488</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E237" t="s">
+        <v>707</v>
+      </c>
+      <c r="F237" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C238" t="s">
+        <v>489</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E238" t="s">
+        <v>667</v>
+      </c>
+      <c r="F238" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C239" t="s">
+        <v>490</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="E239" t="s">
+        <v>708</v>
+      </c>
+      <c r="F239" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C240" t="s">
+        <v>491</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E240" t="s">
+        <v>709</v>
+      </c>
+      <c r="F240" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C241" t="s">
+        <v>492</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E241" t="s">
+        <v>710</v>
+      </c>
+      <c r="F241" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C242" t="s">
+        <v>493</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E242" t="s">
+        <v>619</v>
+      </c>
+      <c r="F242" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C243" t="s">
+        <v>494</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E243" t="s">
+        <v>711</v>
+      </c>
+      <c r="F243" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C244" t="s">
+        <v>495</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E244" t="s">
+        <v>712</v>
+      </c>
+      <c r="F244" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C245" t="s">
+        <v>496</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E245" t="s">
+        <v>620</v>
+      </c>
+      <c r="F245" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C246" t="s">
+        <v>497</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E246" t="s">
+        <v>635</v>
+      </c>
+      <c r="F246" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C247" t="s">
+        <v>498</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E247" t="s">
+        <v>713</v>
+      </c>
+      <c r="F247" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C248" t="s">
+        <v>499</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E248" t="s">
+        <v>714</v>
+      </c>
+      <c r="F248" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C249" t="s">
+        <v>500</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E249" t="s">
+        <v>715</v>
+      </c>
+      <c r="F249" t="s">
+        <v>766</v>
       </c>
     </row>
   </sheetData>
@@ -5843,206 +8046,288 @@
     <hyperlink ref="D107" r:id="rId212"/>
     <hyperlink ref="B108" r:id="rId213" location="AFR_0000951"/>
     <hyperlink ref="D108" r:id="rId214"/>
-    <hyperlink ref="B109" r:id="rId215" location="AFE_0000407"/>
+    <hyperlink ref="B109" r:id="rId215" location="AFC_0000166"/>
     <hyperlink ref="D109" r:id="rId216"/>
-    <hyperlink ref="B110" r:id="rId217" location="AFR_0000957"/>
+    <hyperlink ref="B110" r:id="rId217" location="AFM_0000275"/>
     <hyperlink ref="D110" r:id="rId218"/>
-    <hyperlink ref="B111" r:id="rId219" location="AFM_0000880"/>
+    <hyperlink ref="B111" r:id="rId219" location="AFE_0000407"/>
     <hyperlink ref="D111" r:id="rId220"/>
-    <hyperlink ref="B112" r:id="rId221" location="AFE_0000354"/>
+    <hyperlink ref="B112" r:id="rId221" location="AFR_0000957"/>
     <hyperlink ref="D112" r:id="rId222"/>
-    <hyperlink ref="B113" r:id="rId223" location="AFE_0002231"/>
+    <hyperlink ref="B113" r:id="rId223" location="AFM_0000880"/>
     <hyperlink ref="D113" r:id="rId224"/>
-    <hyperlink ref="B114" r:id="rId225" location="AFE_0000074"/>
+    <hyperlink ref="B114" r:id="rId225" location="Collection"/>
     <hyperlink ref="D114" r:id="rId226"/>
-    <hyperlink ref="B115" r:id="rId227" location="AFE_0000145"/>
+    <hyperlink ref="B115" r:id="rId227" location="AFE_0000354"/>
     <hyperlink ref="D115" r:id="rId228"/>
-    <hyperlink ref="B116" r:id="rId229" location="AFR_0001844"/>
+    <hyperlink ref="B116" r:id="rId229" location="AFE_0002231"/>
     <hyperlink ref="D116" r:id="rId230"/>
-    <hyperlink ref="B117" r:id="rId231" location="AFE_0000718"/>
+    <hyperlink ref="B117" r:id="rId231" location="AFE_0000074"/>
     <hyperlink ref="D117" r:id="rId232"/>
-    <hyperlink ref="B118" r:id="rId233" location="AFE_0000378"/>
+    <hyperlink ref="B118" r:id="rId233" location="AFE_0000145"/>
     <hyperlink ref="D118" r:id="rId234"/>
-    <hyperlink ref="B119" r:id="rId235" location="AFR_0001584"/>
+    <hyperlink ref="B119" r:id="rId235" location="AFR_0001844"/>
     <hyperlink ref="D119" r:id="rId236"/>
-    <hyperlink ref="B120" r:id="rId237" location="AFE_0002190"/>
+    <hyperlink ref="B120" r:id="rId237" location="AFSP_0000005"/>
     <hyperlink ref="D120" r:id="rId238"/>
-    <hyperlink ref="B121" r:id="rId239" location="AFE_0002254"/>
+    <hyperlink ref="B121" r:id="rId239" location="AFE_0000718"/>
     <hyperlink ref="D121" r:id="rId240"/>
-    <hyperlink ref="B122" r:id="rId241" location="AFE_0000499"/>
+    <hyperlink ref="B122" r:id="rId241" location="AFE_0000378"/>
     <hyperlink ref="D122" r:id="rId242"/>
-    <hyperlink ref="B123" r:id="rId243" location="AFE_0000540"/>
+    <hyperlink ref="B123" r:id="rId243" location="AFR_0001584"/>
     <hyperlink ref="D123" r:id="rId244"/>
-    <hyperlink ref="B124" r:id="rId245" location="AFE_0000828"/>
+    <hyperlink ref="B124" r:id="rId245" location="AFE_0002190"/>
     <hyperlink ref="D124" r:id="rId246"/>
-    <hyperlink ref="B125" r:id="rId247" location="AFE_0001875"/>
+    <hyperlink ref="B125" r:id="rId247" location="AFE_0002254"/>
     <hyperlink ref="D125" r:id="rId248"/>
-    <hyperlink ref="B126" r:id="rId249" location="AFE_0002204"/>
+    <hyperlink ref="B126" r:id="rId249" location="AFE_0000499"/>
     <hyperlink ref="D126" r:id="rId250"/>
-    <hyperlink ref="B127" r:id="rId251" location="AFR_0000937"/>
+    <hyperlink ref="B127" r:id="rId251" location="AFE_0000540"/>
     <hyperlink ref="D127" r:id="rId252"/>
-    <hyperlink ref="B128" r:id="rId253" location="AFE_0002206"/>
+    <hyperlink ref="B128" r:id="rId253" location="AFE_0000828"/>
     <hyperlink ref="D128" r:id="rId254"/>
-    <hyperlink ref="B129" r:id="rId255" location="AFE_0002210"/>
+    <hyperlink ref="B129" r:id="rId255" location="AFE_0001875"/>
     <hyperlink ref="D129" r:id="rId256"/>
-    <hyperlink ref="B130" r:id="rId257" location="AFE_0002241"/>
+    <hyperlink ref="B130" r:id="rId257" location="AFE_0002204"/>
     <hyperlink ref="D130" r:id="rId258"/>
-    <hyperlink ref="B131" r:id="rId259" location="AFSP_0000009"/>
+    <hyperlink ref="B131" r:id="rId259" location="AFR_0000937"/>
     <hyperlink ref="D131" r:id="rId260"/>
-    <hyperlink ref="B132" r:id="rId261" location="AFE_0002248"/>
+    <hyperlink ref="B132" r:id="rId261" location="AFE_0002206"/>
     <hyperlink ref="D132" r:id="rId262"/>
-    <hyperlink ref="B133" r:id="rId263" location="AFM_0000077"/>
+    <hyperlink ref="B133" r:id="rId263" location="AFE_0002210"/>
     <hyperlink ref="D133" r:id="rId264"/>
-    <hyperlink ref="B134" r:id="rId265" location="AFM_0000085"/>
+    <hyperlink ref="B134" r:id="rId265" location="AFE_0002241"/>
     <hyperlink ref="D134" r:id="rId266"/>
-    <hyperlink ref="B135" r:id="rId267" location="AFM_0000105"/>
+    <hyperlink ref="B135" r:id="rId267" location="AFSP_0000009"/>
     <hyperlink ref="D135" r:id="rId268"/>
-    <hyperlink ref="B136" r:id="rId269" location="AFM_0000161"/>
+    <hyperlink ref="B136" r:id="rId269" location="AFE_0002248"/>
     <hyperlink ref="D136" r:id="rId270"/>
-    <hyperlink ref="B137" r:id="rId271" location="AFM_0000189"/>
+    <hyperlink ref="B137" r:id="rId271" location="AFP_0003385"/>
     <hyperlink ref="D137" r:id="rId272"/>
-    <hyperlink ref="B138" r:id="rId273"/>
+    <hyperlink ref="B138" r:id="rId273" location="AFP_0003305"/>
     <hyperlink ref="D138" r:id="rId274"/>
-    <hyperlink ref="B139" r:id="rId275" location="AFM_0000404"/>
+    <hyperlink ref="B139" r:id="rId275" location="AFP_0001478"/>
     <hyperlink ref="D139" r:id="rId276"/>
-    <hyperlink ref="B140" r:id="rId277" location="AFQ_0000115"/>
+    <hyperlink ref="B140" r:id="rId277" location="AFM_0000077"/>
     <hyperlink ref="D140" r:id="rId278"/>
-    <hyperlink ref="B141" r:id="rId279" location="AFM_0000418"/>
+    <hyperlink ref="B141" r:id="rId279" location="AFM_0000085"/>
     <hyperlink ref="D141" r:id="rId280"/>
-    <hyperlink ref="B142" r:id="rId281" location="AFM_0000435"/>
+    <hyperlink ref="B142" r:id="rId281" location="AFM_0000105"/>
     <hyperlink ref="D142" r:id="rId282"/>
-    <hyperlink ref="B143" r:id="rId283" location="AFM_0000881"/>
+    <hyperlink ref="B143" r:id="rId283" location="AFM_0001060"/>
     <hyperlink ref="D143" r:id="rId284"/>
-    <hyperlink ref="B144" r:id="rId285" location="AFM_0000883"/>
+    <hyperlink ref="B144" r:id="rId285" location="AFM_0000154"/>
     <hyperlink ref="D144" r:id="rId286"/>
-    <hyperlink ref="B145" r:id="rId287" location="AFM_0001016"/>
+    <hyperlink ref="B145" r:id="rId287" location="AFQ_0000114"/>
     <hyperlink ref="D145" r:id="rId288"/>
-    <hyperlink ref="B146" r:id="rId289" location="AFM_0001023"/>
+    <hyperlink ref="B146" r:id="rId289" location="AFM_0000394"/>
     <hyperlink ref="D146" r:id="rId290"/>
-    <hyperlink ref="B147" r:id="rId291" location="AFM_0001027"/>
+    <hyperlink ref="B147" r:id="rId291" location="AFM_0000161"/>
     <hyperlink ref="D147" r:id="rId292"/>
-    <hyperlink ref="B148" r:id="rId293" location="AFM_0001028"/>
+    <hyperlink ref="B148" r:id="rId293" location="AFM_0000189"/>
     <hyperlink ref="D148" r:id="rId294"/>
-    <hyperlink ref="B149" r:id="rId295" location="AFM_0001033"/>
+    <hyperlink ref="B149" r:id="rId295" location="AFM_0000341"/>
     <hyperlink ref="D149" r:id="rId296"/>
-    <hyperlink ref="B150" r:id="rId297" location="AFM_0001054"/>
+    <hyperlink ref="B150" r:id="rId297"/>
     <hyperlink ref="D150" r:id="rId298"/>
-    <hyperlink ref="B151" r:id="rId299" location="AFM_0001056"/>
+    <hyperlink ref="B151" r:id="rId299" location="AFM_0000386"/>
     <hyperlink ref="D151" r:id="rId300"/>
-    <hyperlink ref="B152" r:id="rId301" location="AFM_0001057"/>
+    <hyperlink ref="B152" r:id="rId301" location="AFQ_0000112"/>
     <hyperlink ref="D152" r:id="rId302"/>
-    <hyperlink ref="B153" r:id="rId303" location="AFM_0001097"/>
+    <hyperlink ref="B153" r:id="rId303" location="AFM_0000403"/>
     <hyperlink ref="D153" r:id="rId304"/>
-    <hyperlink ref="B154" r:id="rId305" location="AFRL_0000269"/>
+    <hyperlink ref="B154" r:id="rId305" location="AFQ_0000113"/>
     <hyperlink ref="D154" r:id="rId306"/>
-    <hyperlink ref="B155" r:id="rId307" location="AFM_0001125"/>
+    <hyperlink ref="B155" r:id="rId307" location="AFM_0000404"/>
     <hyperlink ref="D155" r:id="rId308"/>
-    <hyperlink ref="B156" r:id="rId309" location="AFR_0000413"/>
+    <hyperlink ref="B156" r:id="rId309" location="AFQ_0000115"/>
     <hyperlink ref="D156" r:id="rId310"/>
-    <hyperlink ref="B157" r:id="rId311" location="AFP_0003458"/>
+    <hyperlink ref="B157" r:id="rId311" location="AFM_0000418"/>
     <hyperlink ref="D157" r:id="rId312"/>
-    <hyperlink ref="B158" r:id="rId313" location="AFQ_0000120"/>
+    <hyperlink ref="B158" r:id="rId313" location="AFM_0000435"/>
     <hyperlink ref="D158" r:id="rId314"/>
-    <hyperlink ref="B159" r:id="rId315" location="AFQ_0000065"/>
+    <hyperlink ref="B159" r:id="rId315" location="AFM_0000442"/>
     <hyperlink ref="D159" r:id="rId316"/>
-    <hyperlink ref="B160" r:id="rId317" location="AFQ_0000179"/>
+    <hyperlink ref="B160" r:id="rId317" location="AFM_0000881"/>
     <hyperlink ref="D160" r:id="rId318"/>
-    <hyperlink ref="B161" r:id="rId319" location="AFQ_0000252"/>
+    <hyperlink ref="B161" r:id="rId319" location="AFM_0000883"/>
     <hyperlink ref="D161" r:id="rId320"/>
-    <hyperlink ref="B162" r:id="rId321" location="AFQ_0000253"/>
+    <hyperlink ref="B162" r:id="rId321" location="AFM_0001016"/>
     <hyperlink ref="D162" r:id="rId322"/>
-    <hyperlink ref="B163" r:id="rId323" location="AFQ_0000299"/>
+    <hyperlink ref="B163" r:id="rId323" location="AFM_0001023"/>
     <hyperlink ref="D163" r:id="rId324"/>
-    <hyperlink ref="B164" r:id="rId325" location="AFRE_0000012"/>
+    <hyperlink ref="B164" r:id="rId325" location="AFM_0001027"/>
     <hyperlink ref="D164" r:id="rId326"/>
-    <hyperlink ref="B165" r:id="rId327" location="AFRE_0000013"/>
+    <hyperlink ref="B165" r:id="rId327" location="AFM_0001028"/>
     <hyperlink ref="D165" r:id="rId328"/>
-    <hyperlink ref="B166" r:id="rId329" location="AFR_0000941"/>
+    <hyperlink ref="B166" r:id="rId329" location="AFM_0001044"/>
     <hyperlink ref="D166" r:id="rId330"/>
-    <hyperlink ref="B167" r:id="rId331" location="AFR_0001501"/>
+    <hyperlink ref="B167" r:id="rId331" location="AFM_0001033"/>
     <hyperlink ref="D167" r:id="rId332"/>
-    <hyperlink ref="B168" r:id="rId333" location="AFR_0000935"/>
+    <hyperlink ref="B168" r:id="rId333" location="AFM_0001054"/>
     <hyperlink ref="D168" r:id="rId334"/>
-    <hyperlink ref="B169" r:id="rId335" location="AFR_0000954"/>
+    <hyperlink ref="B169" r:id="rId335" location="AFM_0001055"/>
     <hyperlink ref="D169" r:id="rId336"/>
-    <hyperlink ref="B170" r:id="rId337" location="AFR_0000966"/>
+    <hyperlink ref="B170" r:id="rId337" location="AFM_0001056"/>
     <hyperlink ref="D170" r:id="rId338"/>
-    <hyperlink ref="B171" r:id="rId339" location="AFR_0001079"/>
+    <hyperlink ref="B171" r:id="rId339" location="AFM_0001057"/>
     <hyperlink ref="D171" r:id="rId340"/>
-    <hyperlink ref="B172" r:id="rId341" location="AFR_0001090"/>
+    <hyperlink ref="B172" r:id="rId341" location="AFM_0001097"/>
     <hyperlink ref="D172" r:id="rId342"/>
-    <hyperlink ref="B173" r:id="rId343" location="AFR_0001111"/>
+    <hyperlink ref="B173" r:id="rId343" location="AFM_0001084"/>
     <hyperlink ref="D173" r:id="rId344"/>
-    <hyperlink ref="B174" r:id="rId345" location="AFR_0001142"/>
+    <hyperlink ref="B174" r:id="rId345" location="AFRL_0000269"/>
     <hyperlink ref="D174" r:id="rId346"/>
-    <hyperlink ref="B175" r:id="rId347" location="AFR_0001216"/>
+    <hyperlink ref="B175" r:id="rId347" location="AFM_0001112"/>
     <hyperlink ref="D175" r:id="rId348"/>
-    <hyperlink ref="B176" r:id="rId349" location="AFR_0001218"/>
+    <hyperlink ref="B176" r:id="rId349" location="AFM_0001114"/>
     <hyperlink ref="D176" r:id="rId350"/>
-    <hyperlink ref="B177" r:id="rId351" location="AFR_0001587"/>
+    <hyperlink ref="B177" r:id="rId351" location="AFM_0001115"/>
     <hyperlink ref="D177" r:id="rId352"/>
-    <hyperlink ref="B178" r:id="rId353" location="AFR_0002537"/>
+    <hyperlink ref="B178" r:id="rId353" location="AFM_0001117"/>
     <hyperlink ref="D178" r:id="rId354"/>
-    <hyperlink ref="B179" r:id="rId355" location="AFR_0001589"/>
+    <hyperlink ref="B179" r:id="rId355" location="AFM_0001118"/>
     <hyperlink ref="D179" r:id="rId356"/>
-    <hyperlink ref="B180" r:id="rId357" location="AFR_0001590"/>
+    <hyperlink ref="B180" r:id="rId357" location="AFM_0001125"/>
     <hyperlink ref="D180" r:id="rId358"/>
-    <hyperlink ref="B181" r:id="rId359" location="AFR_0001661"/>
+    <hyperlink ref="B181" r:id="rId359" location="AFM_0001126"/>
     <hyperlink ref="D181" r:id="rId360"/>
-    <hyperlink ref="B182" r:id="rId361" location="AFR_0001732"/>
+    <hyperlink ref="B182" r:id="rId361" location="AFM_0001131"/>
     <hyperlink ref="D182" r:id="rId362"/>
-    <hyperlink ref="B183" r:id="rId363" location="AFR_0001817"/>
+    <hyperlink ref="B183" r:id="rId363" location="AFP_0000161"/>
     <hyperlink ref="D183" r:id="rId364"/>
-    <hyperlink ref="B184" r:id="rId365" location="AFR_0001843"/>
+    <hyperlink ref="B184" r:id="rId365" location="AFR_0000413"/>
     <hyperlink ref="D184" r:id="rId366"/>
-    <hyperlink ref="B185" r:id="rId367" location="AFR_0001880"/>
+    <hyperlink ref="B185" r:id="rId367" location="AFP_0003458"/>
     <hyperlink ref="D185" r:id="rId368"/>
-    <hyperlink ref="B186" r:id="rId369" location="AFR_0001881"/>
+    <hyperlink ref="B186" r:id="rId369" location="AFP_0003591"/>
     <hyperlink ref="D186" r:id="rId370"/>
-    <hyperlink ref="B187" r:id="rId371" location="AFR_0001918"/>
+    <hyperlink ref="B187" r:id="rId371" location="AFR_0001209"/>
     <hyperlink ref="D187" r:id="rId372"/>
-    <hyperlink ref="B188" r:id="rId373" location="AFR_0002074"/>
+    <hyperlink ref="B188" r:id="rId373" location="AFQ_0000120"/>
     <hyperlink ref="D188" r:id="rId374"/>
-    <hyperlink ref="B189" r:id="rId375" location="AFR_0002632"/>
+    <hyperlink ref="B189" r:id="rId375" location="AFQ_0000065"/>
     <hyperlink ref="D189" r:id="rId376"/>
-    <hyperlink ref="B190" r:id="rId377" location="AFR_0002076"/>
+    <hyperlink ref="B190" r:id="rId377" location="AFQ_0000179"/>
     <hyperlink ref="D190" r:id="rId378"/>
-    <hyperlink ref="B191" r:id="rId379" location="AFR_0002432"/>
+    <hyperlink ref="B191" r:id="rId379" location="AFQ_0000252"/>
     <hyperlink ref="D191" r:id="rId380"/>
-    <hyperlink ref="B192" r:id="rId381" location="AFR_0002595"/>
+    <hyperlink ref="B192" r:id="rId381" location="AFQ_0000253"/>
     <hyperlink ref="D192" r:id="rId382"/>
-    <hyperlink ref="B193" r:id="rId383" location="AFR_0002599"/>
+    <hyperlink ref="B193" r:id="rId383" location="AFQ_0000299"/>
     <hyperlink ref="D193" r:id="rId384"/>
-    <hyperlink ref="B194" r:id="rId385" location="AFRL_0000057"/>
+    <hyperlink ref="B194" r:id="rId385" location="AFRE_0000001"/>
     <hyperlink ref="D194" r:id="rId386"/>
-    <hyperlink ref="B195" r:id="rId387" location="AFRL_0000101"/>
+    <hyperlink ref="B195" r:id="rId387" location="AFRE_0000005"/>
     <hyperlink ref="D195" r:id="rId388"/>
-    <hyperlink ref="B196" r:id="rId389"/>
+    <hyperlink ref="B196" r:id="rId389" location="AFRE_0000012"/>
     <hyperlink ref="D196" r:id="rId390"/>
-    <hyperlink ref="B197" r:id="rId391" location="AFRL_0000223"/>
+    <hyperlink ref="B197" r:id="rId391" location="AFRE_0000013"/>
     <hyperlink ref="D197" r:id="rId392"/>
-    <hyperlink ref="B198" r:id="rId393" location="AFRL_0000244"/>
+    <hyperlink ref="B198" r:id="rId393" location="AFR_0001501"/>
     <hyperlink ref="D198" r:id="rId394"/>
-    <hyperlink ref="B199" r:id="rId395" location="AFRL_0000360"/>
+    <hyperlink ref="B199" r:id="rId395" location="AFR_0000935"/>
     <hyperlink ref="D199" r:id="rId396"/>
-    <hyperlink ref="B200" r:id="rId397" location="AFRL_0000363"/>
+    <hyperlink ref="B200" r:id="rId397" location="AFR_0000954"/>
     <hyperlink ref="D200" r:id="rId398"/>
-    <hyperlink ref="B201" r:id="rId399" location="AFRL_0000402"/>
+    <hyperlink ref="B201" r:id="rId399" location="AFR_0000961"/>
     <hyperlink ref="D201" r:id="rId400"/>
-    <hyperlink ref="B202" r:id="rId401" location="AFRL_0000480"/>
+    <hyperlink ref="B202" r:id="rId401" location="AFR_0000966"/>
     <hyperlink ref="D202" r:id="rId402"/>
-    <hyperlink ref="B203" r:id="rId403" location="AFSP_0000001"/>
+    <hyperlink ref="B203" r:id="rId403" location="AFR_0001079"/>
     <hyperlink ref="D203" r:id="rId404"/>
-    <hyperlink ref="B204" r:id="rId405" location="AFSP_0000002"/>
+    <hyperlink ref="B204" r:id="rId405" location="AFR_0001090"/>
     <hyperlink ref="D204" r:id="rId406"/>
-    <hyperlink ref="B205" r:id="rId407" location="AFSP_0000003"/>
+    <hyperlink ref="B205" r:id="rId407" location="AFR_0001111"/>
     <hyperlink ref="D205" r:id="rId408"/>
-    <hyperlink ref="B206" r:id="rId409" location="AFSP_0000004"/>
+    <hyperlink ref="B206" r:id="rId409" location="AFR_0001142"/>
     <hyperlink ref="D206" r:id="rId410"/>
-    <hyperlink ref="B207" r:id="rId411"/>
+    <hyperlink ref="B207" r:id="rId411" location="AFRL_0000316"/>
     <hyperlink ref="D207" r:id="rId412"/>
-    <hyperlink ref="B208" r:id="rId413" location="Dimension"/>
+    <hyperlink ref="B208" r:id="rId413" location="AFRL_0000325"/>
     <hyperlink ref="D208" r:id="rId414"/>
+    <hyperlink ref="B209" r:id="rId415" location="AFR_0001216"/>
+    <hyperlink ref="D209" r:id="rId416"/>
+    <hyperlink ref="B210" r:id="rId417" location="AFR_0001218"/>
+    <hyperlink ref="D210" r:id="rId418"/>
+    <hyperlink ref="B211" r:id="rId419" location="AFR_0001587"/>
+    <hyperlink ref="D211" r:id="rId420"/>
+    <hyperlink ref="B212" r:id="rId421" location="AFR_0002537"/>
+    <hyperlink ref="D212" r:id="rId422"/>
+    <hyperlink ref="B213" r:id="rId423" location="AFR_0001589"/>
+    <hyperlink ref="D213" r:id="rId424"/>
+    <hyperlink ref="B214" r:id="rId425" location="AFR_0001590"/>
+    <hyperlink ref="D214" r:id="rId426"/>
+    <hyperlink ref="B215" r:id="rId427" location="AFR_0001661"/>
+    <hyperlink ref="D215" r:id="rId428"/>
+    <hyperlink ref="B216" r:id="rId429" location="AFR_0002036"/>
+    <hyperlink ref="D216" r:id="rId430"/>
+    <hyperlink ref="B217" r:id="rId431" location="AFR_0001732"/>
+    <hyperlink ref="D217" r:id="rId432"/>
+    <hyperlink ref="B218" r:id="rId433" location="AFR_0001817"/>
+    <hyperlink ref="D218" r:id="rId434"/>
+    <hyperlink ref="B219" r:id="rId435" location="AFR_0001843"/>
+    <hyperlink ref="D219" r:id="rId436"/>
+    <hyperlink ref="B220" r:id="rId437" location="AFR_0001880"/>
+    <hyperlink ref="D220" r:id="rId438"/>
+    <hyperlink ref="B221" r:id="rId439" location="AFR_0001881"/>
+    <hyperlink ref="D221" r:id="rId440"/>
+    <hyperlink ref="B222" r:id="rId441" location="AFR_0001918"/>
+    <hyperlink ref="D222" r:id="rId442"/>
+    <hyperlink ref="B223" r:id="rId443" location="AFR_0002074"/>
+    <hyperlink ref="D223" r:id="rId444"/>
+    <hyperlink ref="B224" r:id="rId445" location="AFR_0002632"/>
+    <hyperlink ref="D224" r:id="rId446"/>
+    <hyperlink ref="B225" r:id="rId447" location="AFR_0002076"/>
+    <hyperlink ref="D225" r:id="rId448"/>
+    <hyperlink ref="B226" r:id="rId449" location="AFR_0002432"/>
+    <hyperlink ref="D226" r:id="rId450"/>
+    <hyperlink ref="B227" r:id="rId451" location="AFR_0002595"/>
+    <hyperlink ref="D227" r:id="rId452"/>
+    <hyperlink ref="B228" r:id="rId453" location="AFR_0002599"/>
+    <hyperlink ref="D228" r:id="rId454"/>
+    <hyperlink ref="B229" r:id="rId455" location="AFRL_0000057"/>
+    <hyperlink ref="D229" r:id="rId456"/>
+    <hyperlink ref="B230" r:id="rId457" location="AFRL_0000101"/>
+    <hyperlink ref="D230" r:id="rId458"/>
+    <hyperlink ref="B231" r:id="rId459"/>
+    <hyperlink ref="D231" r:id="rId460"/>
+    <hyperlink ref="B232" r:id="rId461" location="AFRL_0000221"/>
+    <hyperlink ref="D232" r:id="rId462"/>
+    <hyperlink ref="B233" r:id="rId463" location="AFRL_0000223"/>
+    <hyperlink ref="D233" r:id="rId464"/>
+    <hyperlink ref="B234" r:id="rId465" location="AFRL_0000244"/>
+    <hyperlink ref="D234" r:id="rId466"/>
+    <hyperlink ref="B235" r:id="rId467" location="AFRL_0000253"/>
+    <hyperlink ref="D235" r:id="rId468"/>
+    <hyperlink ref="B236" r:id="rId469" location="AFRL_0000360"/>
+    <hyperlink ref="D236" r:id="rId470"/>
+    <hyperlink ref="B237" r:id="rId471" location="AFRL_0000363"/>
+    <hyperlink ref="D237" r:id="rId472"/>
+    <hyperlink ref="B238" r:id="rId473" location="AFRL_0000370"/>
+    <hyperlink ref="D238" r:id="rId474"/>
+    <hyperlink ref="B239" r:id="rId475" location="AFRL_0000402"/>
+    <hyperlink ref="D239" r:id="rId476"/>
+    <hyperlink ref="B240" r:id="rId477" location="AFRL_0000480"/>
+    <hyperlink ref="D240" r:id="rId478"/>
+    <hyperlink ref="B241" r:id="rId479" location="AFSP_0000001"/>
+    <hyperlink ref="D241" r:id="rId480"/>
+    <hyperlink ref="B242" r:id="rId481" location="AFSP_0000002"/>
+    <hyperlink ref="D242" r:id="rId482"/>
+    <hyperlink ref="B243" r:id="rId483" location="AFSP_0000003"/>
+    <hyperlink ref="D243" r:id="rId484"/>
+    <hyperlink ref="B244" r:id="rId485" location="AFSP_0000004"/>
+    <hyperlink ref="D244" r:id="rId486"/>
+    <hyperlink ref="B245" r:id="rId487"/>
+    <hyperlink ref="D245" r:id="rId488"/>
+    <hyperlink ref="B246" r:id="rId489"/>
+    <hyperlink ref="D246" r:id="rId490"/>
+    <hyperlink ref="B247" r:id="rId491"/>
+    <hyperlink ref="D247" r:id="rId492"/>
+    <hyperlink ref="B248" r:id="rId493"/>
+    <hyperlink ref="D248" r:id="rId494"/>
+    <hyperlink ref="B249" r:id="rId495" location="Dimension"/>
+    <hyperlink ref="D249" r:id="rId496"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
